--- a/DataBase.xlsx
+++ b/DataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\indp\UniversalCloud\UC-ImageApp-3DAbstractWallpapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76462C0-B213-4FDD-B4C1-49C916179A71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95857ABE-993C-47F2-85D8-8FD882DB5A37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{B8895C67-6952-4A81-99F9-7D657C537D61}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10055" uniqueCount="9347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10064" uniqueCount="9348">
   <si>
     <t>Headers</t>
   </si>
@@ -28071,6 +28071,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-3DAbstractWallpapers/master/C9/HD/350.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/indpDB/UC-ImageApp-3DAbstractWallpapers/master/C6/TH/1.jpg</t>
   </si>
 </sst>
 </file>
@@ -28468,8 +28471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E2BA85-0A0D-4BBD-8243-7EDE44B35083}">
   <dimension ref="A1:AY1859"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28626,6 +28629,9 @@
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
@@ -28715,6 +28721,9 @@
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
@@ -28804,6 +28813,9 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B4" s="9" t="s">
+        <v>731</v>
+      </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
@@ -28893,6 +28905,9 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>1081</v>
+      </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
@@ -28982,6 +28997,9 @@
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>1431</v>
+      </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -29071,6 +29089,9 @@
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B7" s="9" t="s">
+        <v>9347</v>
+      </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
@@ -29160,6 +29181,9 @@
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="9" t="s">
+        <v>3289</v>
+      </c>
       <c r="C8" t="s">
         <v>30</v>
       </c>
@@ -29249,6 +29273,9 @@
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B9" s="9" t="s">
+        <v>3989</v>
+      </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
@@ -29338,6 +29365,9 @@
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B10" s="9" t="s">
+        <v>4339</v>
+      </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
